--- a/demopack.xlsx
+++ b/demopack.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -52,7 +52,7 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>New Account</x:t>
+    <x:t>New Contact</x:t>
   </x:si>
   <x:si>
     <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
@@ -61,10 +61,10 @@
     <x:t>Step 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on the Account tab, and click on New button</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the New  Account Page</x:t>
+    <x:t>Click on the Contact tab, and click on New button</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the New  Contact Page</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">Valid value for required field Account Name </x:t>
@@ -79,10 +79,22 @@
     <x:t>User should be able to input value for the Account Name field.</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">Valid value for required field Salutation, First Name, Last Name </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Salutation, First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Salutation, First Name, Last Name field.</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">Valid value for required field  </x:t>
   </x:si>
   <x:si>
-    <x:t>Step 3</x:t>
+    <x:t>Step 4</x:t>
   </x:si>
   <x:si>
     <x:t>Input valid value in the   field.</x:t>
@@ -91,16 +103,13 @@
     <x:t>User should be able to input value for the  field.</x:t>
   </x:si>
   <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
     <x:t>Step 5</x:t>
   </x:si>
   <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a New Account is created</x:t>
+    <x:t>Click on Save button to save Contact with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a New Contact is created</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_2</x:t>
@@ -109,19 +118,19 @@
     <x:t>TestScenario_2.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
+    <x:t>View Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Contact tab,  and select a Contact </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Contact Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Contact name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Contact Details</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_3</x:t>
@@ -130,16 +139,16 @@
     <x:t>TestScenario_3.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Account Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Account is edited</x:t>
+    <x:t>Edit Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab,  and click on existing Contact to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Contact Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Contact is edited</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4</x:t>
@@ -148,22 +157,22 @@
     <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Delete Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and select the existing  Account to delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on to the Delete to Delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Confirm / OK to delete the  Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate the Account is deleted</x:t>
+    <x:t>Delete Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Contact tab,  and select the existing  Contact to delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on to the Delete to Delete the Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that a pop-up is displayed asking for confirmation to delete the Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Confirm / OK to delete the  Contact</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the Contact is deleted</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -561,12 +570,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="16.550625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="16.130625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="41.980625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="58.700625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="61.840625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="93.550625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="60.980625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="93.130625" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
   </x:cols>
@@ -675,16 +684,16 @@
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
       <x:c r="E5" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I5" s="0" t="s"/>
       <x:c r="J5" s="0" t="s"/>
@@ -696,26 +705,26 @@
       <x:c r="D6" s="0" t="s"/>
       <x:c r="E6" s="0" t="s"/>
       <x:c r="F6" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
         <x:v>13</x:v>
@@ -725,10 +734,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="I7" s="0" t="s"/>
       <x:c r="J7" s="0" t="s"/>
@@ -743,23 +752,23 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="H8" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="I8" s="0" t="s"/>
       <x:c r="J8" s="0" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
         <x:v>13</x:v>
@@ -769,10 +778,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -823,16 +832,16 @@
       <x:c r="C12" s="0" t="s"/>
       <x:c r="D12" s="0" t="s"/>
       <x:c r="E12" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H12" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s"/>
       <x:c r="J12" s="0" t="s"/>
@@ -844,26 +853,26 @@
       <x:c r="D13" s="0" t="s"/>
       <x:c r="E13" s="0" t="s"/>
       <x:c r="F13" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="H13" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s"/>
       <x:c r="J13" s="0" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B14" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
         <x:v>13</x:v>
@@ -873,10 +882,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="G14" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="H14" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s"/>
       <x:c r="J14" s="0" t="s"/>
@@ -891,10 +900,10 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="G15" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="H15" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s"/>
       <x:c r="J15" s="0" t="s"/>
@@ -909,10 +918,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="G16" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="H16" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="I16" s="0" t="s"/>
       <x:c r="J16" s="0" t="s"/>
